--- a/rawresource/rawconfig/player.xlsx
+++ b/rawresource/rawconfig/player.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8640" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
     <sheet name="levelup" sheetId="2" r:id="rId2"/>
+    <sheet name="welcome" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>array</t>
   </si>
@@ -207,6 +208,33 @@
   </si>
   <si>
     <t>bagGrid</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>直接发放的资源</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>{{res = 1,id = 0,count = 999999},{res = 3,id = 10000,count = 1},{res = 3,id = 20000,count = 99},{res = 3,id = 20001,count = 99}}</t>
+  </si>
+  <si>
+    <t>邮件内容(语言包)</t>
+  </si>
+  <si>
+    <t>mail_ctx</t>
+  </si>
+  <si>
+    <t>邮件附件</t>
+  </si>
+  <si>
+    <t>attachment</t>
   </si>
 </sst>
 </file>
--- a/rawresource/rawconfig/player.xlsx
+++ b/rawresource/rawconfig/player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8640" tabRatio="655" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8640" tabRatio="655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -259,19 +259,19 @@
     <t>attr</t>
   </si>
   <si>
-    <t>{{1,20},{2,30},{3,30}}</t>
-  </si>
-  <si>
-    <t>{{1,30},{2,40},{3,50}}</t>
-  </si>
-  <si>
-    <t>{{1,40},{2,50},{3,60}}</t>
-  </si>
-  <si>
-    <t>{{1,50},{2,60},{3,70}}</t>
-  </si>
-  <si>
-    <t>{{1,60},{2,70},{3,80}}</t>
+    <t>{{1,20},{2,30},{3,30},{5,128}}</t>
+  </si>
+  <si>
+    <t>{{1,30},{2,40},{3,50},{5,128}}</t>
+  </si>
+  <si>
+    <t>{{1,40},{2,50},{3,60},{5,128}}</t>
+  </si>
+  <si>
+    <t>{{1,50},{2,60},{3,70},{5,128}}</t>
+  </si>
+  <si>
+    <t>{{1,60},{2,70},{3,80},{5,128}}</t>
   </si>
 </sst>
 </file>
@@ -280,9 +280,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -290,13 +290,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -313,11 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -326,31 +314,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,22 +342,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -389,15 +351,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,7 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,9 +387,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +425,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +463,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,79 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,85 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,21 +656,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +680,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +725,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -737,157 +748,146 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,7 +1750,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1761,7 +1761,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
@@ -1848,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/rawresource/rawconfig/player.xlsx
+++ b/rawresource/rawconfig/player.xlsx
@@ -228,7 +228,7 @@
     <t xml:space="preserve">attachment</t>
   </si>
   <si>
-    <t xml:space="preserve">{{res=1,id=0,count=999999},{res=3,id=10000,count=1},{res=3,id=20000,count=99},{res=3,id=20001,count=99}}</t>
+    <t xml:space="preserve">{{1,999999},{10000,1},{20000,99},{20001,99}}</t>
   </si>
   <si>
     <t xml:space="preserve">邮件内容</t>
@@ -929,7 +929,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
